--- a/experiment_results/best_case/Email/2wise/1_best_case.xlsx
+++ b/experiment_results/best_case/Email/2wise/1_best_case.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>247</v>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>247</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>247</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>247</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>247</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>247</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>247</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="H4">
         <v>247</v>
